--- a/.datasets/FacDEMTablaMuestra.xlsx
+++ b/.datasets/FacDEMTablaMuestra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section02\FacDEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE314C63-C3A5-4C60-ADD1-76940F9E258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A32258-AC58-488D-9864-22E827D99295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8F99E28-515E-45AA-A7B3-5E6702C2D1E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8F99E28-515E-45AA-A7B3-5E6702C2D1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TablaMuestra" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,6 @@
     <t>Punto</t>
   </si>
   <si>
-    <t>Longitud°</t>
-  </si>
-  <si>
-    <t>Latitud°</t>
-  </si>
-  <si>
-    <t>CX, m</t>
-  </si>
-  <si>
-    <t>CY, m</t>
-  </si>
-  <si>
     <t>Cauce</t>
   </si>
   <si>
@@ -83,6 +71,18 @@
   </si>
   <si>
     <t>Arroyo Quiebradientes</t>
+  </si>
+  <si>
+    <t>LongDD</t>
+  </si>
+  <si>
+    <t>LatDD</t>
+  </si>
+  <si>
+    <t>CXm</t>
+  </si>
+  <si>
+    <t>CYm</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -467,7 +467,7 @@
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>2634320.17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>2623393.2119999998</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>2612748.3420000002</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>2612564.8059999999</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>2611520.3640000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>2610076.2650000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>2632969.1189999999</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>2582738.8569999998</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>2574638.8879999998</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>2569664.4019999998</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/.datasets/FacDEMTablaMuestra.xlsx
+++ b/.datasets/FacDEMTablaMuestra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A32258-AC58-488D-9864-22E827D99295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0ED9E4-9DEF-464A-B218-2DFF2F138DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8F99E28-515E-45AA-A7B3-5E6702C2D1E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8F99E28-515E-45AA-A7B3-5E6702C2D1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TablaMuestra" sheetId="1" r:id="rId1"/>
@@ -456,22 +456,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7AF007-D0F3-4B74-A504-7B07672D0C99}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -511,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -531,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -551,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -571,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -591,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -611,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -631,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -651,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -671,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
